--- a/swings/2021-11-22/BINANCE_SPOT_RAY_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_RAY_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>10.155</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -659,6 +668,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>10.233</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +723,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +776,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -817,6 +831,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>10.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +888,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>10.162</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -925,6 +945,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O9" t="n">
+        <v>10.029</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -977,6 +1000,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1029,6 +1053,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1083,6 +1108,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>10.143</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1137,6 +1165,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>10.099</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1191,6 +1222,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>10.133</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1243,6 +1277,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1297,6 +1332,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1349,6 +1387,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1403,6 +1442,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>10.069</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1455,6 +1497,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1507,6 +1550,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1559,6 +1603,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1611,6 +1656,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1665,6 +1711,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>9.923</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1719,6 +1768,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>10.023</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1771,6 +1823,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1823,6 +1876,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1877,6 +1931,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>9.922000000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1931,6 +1988,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O28" t="n">
+        <v>9.965999999999999</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1985,6 +2045,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>9.894</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2039,6 +2102,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>9.933</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2091,6 +2157,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2143,6 +2210,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2197,6 +2265,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>9.776999999999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2249,6 +2320,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2301,6 +2373,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2355,6 +2428,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O36" t="n">
+        <v>9.963000000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2407,6 +2483,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2461,6 +2538,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>9.923999999999999</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2515,6 +2595,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>9.949999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2567,6 +2650,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2619,6 +2703,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2673,6 +2758,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>9.907</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2725,6 +2813,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2779,6 +2868,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>10.04</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2833,6 +2925,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>9.981</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2887,6 +2982,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>10.03</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2939,6 +3037,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2991,6 +3090,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3043,6 +3143,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3097,6 +3198,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>9.951000000000001</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3149,6 +3253,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3201,6 +3306,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3255,6 +3361,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>10.005</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3307,6 +3416,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3361,6 +3471,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>9.957000000000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3413,6 +3526,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3467,6 +3581,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>10.026</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3519,6 +3636,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3571,6 +3689,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3623,6 +3742,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3675,6 +3795,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3729,6 +3850,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>9.881</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3781,6 +3905,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3835,6 +3960,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O64" t="n">
+        <v>9.960000000000001</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3889,6 +4017,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O65" t="n">
+        <v>9.914999999999999</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3941,6 +4072,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3993,6 +4125,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4045,6 +4178,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4097,6 +4231,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4151,6 +4286,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>10.016</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4203,6 +4341,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4257,6 +4396,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>9.936999999999999</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4311,6 +4453,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O73" t="n">
+        <v>10.015</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4365,6 +4510,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O74" t="n">
+        <v>9.949999999999999</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4417,6 +4565,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4469,6 +4618,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4523,6 +4673,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>10.111</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4575,6 +4728,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4627,6 +4781,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4679,6 +4834,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4731,6 +4887,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4785,6 +4942,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O82" t="n">
+        <v>9.874000000000001</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4837,6 +4997,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4891,6 +5052,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>10.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4945,6 +5109,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>10.061</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4997,6 +5164,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5051,6 +5219,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O87" t="n">
+        <v>10.137</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5105,6 +5276,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>9.98</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5157,6 +5331,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5211,6 +5386,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>10.044</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5265,6 +5443,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>9.962</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5319,6 +5500,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>10.042</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5373,6 +5557,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>10.003</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5427,6 +5614,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>10.048</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5481,6 +5671,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>9.981</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5533,6 +5726,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5587,6 +5781,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>10.041</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5639,6 +5836,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5693,6 +5891,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>9.941000000000001</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5745,6 +5946,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5797,6 +5999,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5851,6 +6054,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O102" t="n">
+        <v>10.153</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5903,6 +6109,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5957,6 +6164,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>9.983000000000001</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6011,6 +6221,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>10.018</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6063,6 +6276,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6117,6 +6331,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>9.938000000000001</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6171,6 +6388,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>10.074</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6223,6 +6443,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6275,6 +6496,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6329,6 +6551,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O111" t="n">
+        <v>9.968</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6383,6 +6608,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>10.08</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6435,6 +6663,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6489,6 +6718,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O114" t="n">
+        <v>9.964</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6541,6 +6773,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6595,6 +6828,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>10.115</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6647,6 +6883,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6699,6 +6936,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6751,6 +6989,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6803,6 +7042,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6855,6 +7095,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6909,6 +7150,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>9.743</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6963,6 +7207,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>9.901</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7017,6 +7264,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>9.819000000000001</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7069,6 +7319,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7123,6 +7374,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>9.871</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7175,6 +7429,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7229,6 +7484,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>9.757999999999999</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7281,6 +7539,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7335,6 +7594,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O130" t="n">
+        <v>9.843999999999999</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7387,6 +7649,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7441,6 +7704,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>9.769</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7493,6 +7759,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7547,6 +7814,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>9.879</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7601,6 +7871,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>9.807</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7655,6 +7928,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>9.853</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7709,6 +7985,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O137" t="n">
+        <v>9.833</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7761,6 +8040,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7813,6 +8093,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7865,6 +8146,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7919,6 +8201,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O141" t="n">
+        <v>9.906000000000001</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7971,6 +8256,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8023,6 +8309,7 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8077,6 +8364,9 @@
           <t>RAYBUSD</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>9.815</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8130,6 +8420,9 @@
         <is>
           <t>RAYBUSD</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>9.853999999999999</v>
       </c>
     </row>
   </sheetData>
